--- a/Examples.Library/src/main/resources/xlsx/Template_TextFields.xlsx
+++ b/Examples.Library/src/main/resources/xlsx/Template_TextFields.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ds-excel-java\Source\Demos\ExamplesDemo\Examples.Library\src\main\resources\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitCode\ds-excel-java\Source\Demos\ExamplesDemo\Examples.Library\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20181A95-821B-49C8-93CF-D049F3299436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="2925" windowWidth="27165" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1632" yWindow="2928" windowWidth="27168" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Addresses" sheetId="1" r:id="rId1"/>
@@ -105,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
@@ -370,12 +369,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Date" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Date" xfId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Phone" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Table Header" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Phone" xfId="2"/>
+    <cellStyle name="Table Header" xfId="4"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="15">
@@ -627,7 +626,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -682,7 +680,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Custom Table Style" defaultPivotStyle="PivotStyleLight1">
-    <tableStyle name="Custom Table Style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Custom Table Style" pivot="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="firstColumn" dxfId="13"/>
     </tableStyle>
@@ -705,19 +703,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Addresses" displayName="Addresses" ref="B3:K11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" headerRowCellStyle="Table Header">
-  <autoFilter ref="B3:K11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Addresses" displayName="Addresses" ref="B3:K11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" headerRowCellStyle="Table Header">
+  <autoFilter ref="B3:K11"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NAME" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="WORK" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CELL" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="HOME" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="EMAIL" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="BIRTHDAY" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ADDRESS" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CITY" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="STATE" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ZIP" dataDxfId="0"/>
+    <tableColumn id="1" name="NAME" dataDxfId="9"/>
+    <tableColumn id="2" name="WORK" dataDxfId="8"/>
+    <tableColumn id="3" name="CELL" dataDxfId="7"/>
+    <tableColumn id="4" name="HOME" dataDxfId="6"/>
+    <tableColumn id="5" name="EMAIL" dataDxfId="5"/>
+    <tableColumn id="6" name="BIRTHDAY" dataDxfId="4"/>
+    <tableColumn id="7" name="ADDRESS" dataDxfId="3"/>
+    <tableColumn id="8" name="CITY" dataDxfId="2"/>
+    <tableColumn id="9" name="STATE" dataDxfId="1"/>
+    <tableColumn id="10" name="ZIP" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Custom Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -930,34 +928,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M11"/>
+  <dimension ref="B1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="17.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="32" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.08203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.4140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.9140625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
@@ -965,7 +965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:13" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:13" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="6"/>
@@ -1045,7 +1045,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1057,7 +1057,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1069,7 +1069,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1081,7 +1081,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1093,7 +1093,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1105,7 +1105,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1117,6 +1117,33 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
+    <row r="12" spans="2:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
